--- a/data/12月.xlsx
+++ b/data/12月.xlsx
@@ -83,7 +83,7 @@
     <t>2023烹饪高考英才1班</t>
   </si>
   <si>
-    <t>23酒店烹饪升学班（合班）西餐操作室</t>
+    <t>23酒店烹饪升学班（合班）</t>
   </si>
   <si>
     <t xml:space="preserve"> 2023计应平面升学班（合班）</t>
@@ -143,7 +143,7 @@
     <t>2024中餐3班(英才)</t>
   </si>
   <si>
-    <t>2024中餐4班(金龙鱼)</t>
+    <t>2024中餐4班</t>
   </si>
   <si>
     <t>2024中餐5班(实验)</t>
@@ -203,7 +203,7 @@
     <t>2025中餐2班（高职）</t>
   </si>
   <si>
-    <t>2025中餐3班（金龙鱼）</t>
+    <t>2025中餐3班</t>
   </si>
   <si>
     <t>2025中餐4班（实验）</t>
@@ -276,13 +276,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="FangSong"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -436,12 +442,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -630,11 +642,63 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -741,70 +805,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,76 +880,112 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1426,13 +1523,13 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B2" sqref="B2:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="8.11111111111111" customWidth="1"/>
+    <col min="2" max="2" width="46.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="11.3333333333333" customWidth="1"/>
     <col min="13" max="13" width="11.5555555555556" customWidth="1"/>
     <col min="14" max="14" width="12.7777777777778" customWidth="1"/>
@@ -1486,11 +1583,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" ht="15.6" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C2">
@@ -1530,11 +1627,11 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" ht="15.6" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C3">
@@ -1574,11 +1671,11 @@
         <v>962</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" ht="15.6" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4">
@@ -1621,11 +1718,11 @@
         <v>1006.5</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" ht="15.6" spans="1:15">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5">
@@ -1665,11 +1762,11 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" ht="15.6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C6">
@@ -1712,11 +1809,11 @@
         <v>988.4</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" ht="15.6" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C7">
@@ -1756,11 +1853,11 @@
         <v>981.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" ht="15.6" spans="1:15">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C8">
@@ -1803,11 +1900,11 @@
         <v>989.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" ht="15.6" spans="1:15">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C9">
@@ -1850,11 +1947,11 @@
         <v>990.5</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" ht="15.6" spans="1:15">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C10">
@@ -1897,11 +1994,11 @@
         <v>999.5</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" ht="15.6" spans="1:15">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C11">
@@ -1944,11 +2041,11 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" ht="15.6" spans="1:15">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C12">
@@ -1991,11 +2088,11 @@
         <v>983</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" ht="15.6" spans="1:15">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C13">
@@ -2038,11 +2135,11 @@
         <v>1012.5</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" ht="15.6" spans="1:15">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C14">
@@ -2085,11 +2182,11 @@
         <v>995</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" ht="15.6" spans="1:15">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C15">
@@ -2129,11 +2226,11 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" ht="15.6" spans="1:15">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C16">
@@ -2176,11 +2273,11 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" ht="15.6" spans="1:15">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C17">
@@ -2220,11 +2317,11 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" ht="15.6" spans="1:15">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C18">
@@ -2264,11 +2361,11 @@
         <v>986.5</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" ht="15.6" spans="1:15">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C19">
@@ -2308,11 +2405,11 @@
         <v>996</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" ht="15.6" spans="1:15">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C20">
@@ -2352,11 +2449,11 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" ht="15.6" spans="1:15">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C21">
@@ -2399,11 +2496,11 @@
         <v>991</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" ht="15.6" spans="1:15">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C22">
@@ -2443,11 +2540,11 @@
         <v>988.5</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" ht="15.6" spans="1:15">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C23">
@@ -2487,11 +2584,11 @@
         <v>968.5</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" ht="15.6" spans="1:15">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C24">
@@ -2534,11 +2631,11 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" ht="15.6" spans="1:15">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C25">
@@ -2578,11 +2675,11 @@
         <v>987</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" ht="15.6" spans="1:15">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C26">
@@ -2622,11 +2719,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" ht="15.6" spans="1:15">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C27">
@@ -2666,11 +2763,11 @@
         <v>999</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" ht="15.6" spans="1:15">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C28">
@@ -2713,11 +2810,11 @@
         <v>999.5</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" ht="15.6" spans="1:15">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C29">
@@ -2760,11 +2857,11 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" ht="15.6" spans="1:15">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C30">
@@ -2807,11 +2904,11 @@
         <v>996.5</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" ht="15.6" spans="1:15">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C31">
@@ -2854,11 +2951,11 @@
         <v>991</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" ht="15.6" spans="1:15">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C32">
@@ -2901,11 +2998,11 @@
         <v>994</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" ht="15.6" spans="1:15">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C33">
@@ -2945,11 +3042,11 @@
         <v>990</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" ht="15.6" spans="1:15">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C34">
@@ -2989,11 +3086,11 @@
         <v>989</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" ht="15.6" spans="1:15">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C35">
@@ -3036,11 +3133,11 @@
         <v>985</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" ht="15.6" spans="1:15">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C36">
@@ -3080,11 +3177,11 @@
         <v>979</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" ht="15.6" spans="1:15">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C37">
@@ -3127,11 +3224,11 @@
         <v>990</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" ht="15.6" spans="1:15">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C38">
@@ -3171,11 +3268,11 @@
         <v>990.5</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" ht="15.6" spans="1:15">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C39">
@@ -3215,11 +3312,11 @@
         <v>995</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" ht="15.6" spans="1:15">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C40">
@@ -3262,11 +3359,11 @@
         <v>988</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" ht="15.6" spans="1:15">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C41">
@@ -3306,11 +3403,11 @@
         <v>997</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" ht="15.6" spans="1:15">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C42">
@@ -3350,11 +3447,11 @@
         <v>992</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" ht="15.6" spans="1:15">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C43">
@@ -3394,11 +3491,11 @@
         <v>973</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" ht="15.6" spans="1:15">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C44">
@@ -3441,11 +3538,11 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" ht="15.6" spans="1:15">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C45">
@@ -3485,11 +3582,11 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" ht="15.6" spans="1:15">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C46">
@@ -3529,11 +3626,11 @@
         <v>996</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" ht="15.6" spans="1:15">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C47">
@@ -3573,11 +3670,11 @@
         <v>989.5</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" ht="15.6" spans="1:15">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C48">
@@ -3617,11 +3714,11 @@
         <v>935</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" ht="15.6" spans="1:15">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C49">
@@ -3661,11 +3758,11 @@
         <v>996</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" ht="15.6" spans="1:15">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C50">
@@ -3705,11 +3802,11 @@
         <v>994</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" ht="15.6" spans="1:15">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C51">
@@ -3749,11 +3846,11 @@
         <v>990.5</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" ht="15.6" spans="1:15">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C52">
@@ -3793,11 +3890,11 @@
         <v>995.5</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" ht="15.6" spans="1:15">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C53">
@@ -3840,11 +3937,11 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" ht="15.6" spans="1:15">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C54">
@@ -3887,11 +3984,11 @@
         <v>1004.5</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" ht="15.6" spans="1:15">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C55">
@@ -3931,11 +4028,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" ht="15.6" spans="1:15">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C56">
@@ -3975,11 +4072,11 @@
         <v>999</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" ht="15.6" spans="1:15">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C57">
@@ -4019,11 +4116,11 @@
         <v>995</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" ht="15.6" spans="1:15">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C58">
@@ -4063,11 +4160,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" ht="15.6" spans="1:15">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C59">
@@ -4107,11 +4204,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" ht="15.6" spans="1:15">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C60">
@@ -4154,11 +4251,11 @@
         <v>988</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" ht="15.6" spans="1:15">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C61">
@@ -4198,11 +4295,11 @@
         <v>999</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" ht="15.6" spans="1:15">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C62">
@@ -4245,11 +4342,11 @@
         <v>1001.5</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" ht="15.6" spans="1:15">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C63">
@@ -4289,11 +4386,11 @@
         <v>996</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" ht="15.6" spans="1:15">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C64">
@@ -4336,11 +4433,11 @@
         <v>982</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" ht="15.6" spans="1:15">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C65">
